--- a/K-means.xlsx
+++ b/K-means.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F223A2-0949-4994-80D3-74E4DB991388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC41499A-A4BE-448F-A6B9-6AE79D5C8776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="92">
   <si>
     <t>Masculino</t>
   </si>
@@ -83,9 +83,6 @@
     <t xml:space="preserve">Kennedy </t>
   </si>
   <si>
-    <t>9/10</t>
-  </si>
-  <si>
     <t xml:space="preserve">Suba </t>
   </si>
   <si>
@@ -143,33 +140,6 @@
     <t xml:space="preserve">Marsella </t>
   </si>
   <si>
-    <t>3,7</t>
-  </si>
-  <si>
-    <t>3,8</t>
-  </si>
-  <si>
-    <t>4,7</t>
-  </si>
-  <si>
-    <t>4,2</t>
-  </si>
-  <si>
-    <t>4,3</t>
-  </si>
-  <si>
-    <t>4,5</t>
-  </si>
-  <si>
-    <t>3,5</t>
-  </si>
-  <si>
-    <t>4,1</t>
-  </si>
-  <si>
-    <t>4,01</t>
-  </si>
-  <si>
     <t>Femenino</t>
   </si>
   <si>
@@ -213,6 +183,120 @@
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>1.87</t>
+  </si>
+  <si>
+    <t>1.70</t>
+  </si>
+  <si>
+    <t>1.53</t>
+  </si>
+  <si>
+    <t>1.74</t>
+  </si>
+  <si>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>1.66</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>1.76</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.55</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>1.65</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>4.41</t>
+  </si>
+  <si>
+    <t>1.58</t>
+  </si>
+  <si>
+    <t>1.78</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>4.44</t>
+  </si>
+  <si>
+    <t>1.68</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>1.61</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>1.98</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>4.58</t>
+  </si>
+  <si>
+    <t>1.71</t>
+  </si>
+  <si>
+    <t>4.01</t>
+  </si>
+  <si>
+    <t>1.67</t>
+  </si>
+  <si>
+    <t>1.54</t>
+  </si>
+  <si>
+    <t>4.6</t>
   </si>
 </sst>
 </file>
@@ -220,7 +304,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="d\.m"/>
+    <numFmt numFmtId="164" formatCode="d\.m"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -233,6 +317,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -396,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -443,10 +528,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -474,11 +559,328 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFF8F9FA"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF8F9FA"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF8F9FA"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF8F9FA"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFF8F9FA"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF8F9FA"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF8F9FA"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF8F9FA"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFF8F9FA"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF8F9FA"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF8F9FA"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF8F9FA"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFF8F9FA"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF8F9FA"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF8F9FA"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF8F9FA"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFF8F9FA"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF8F9FA"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF8F9FA"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF8F9FA"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFF8F9FA"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF8F9FA"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF8F9FA"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF8F9FA"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFF8F9FA"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF8F9FA"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF8F9FA"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF8F9FA"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFF8F9FA"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF8F9FA"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF8F9FA"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF8F9FA"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFF8F9FA"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF8F9FA"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF8F9FA"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFF8F9FA"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -487,16 +889,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <family val="2"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -525,9 +917,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Respuestas de formulario 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="firstRowStripe" dxfId="4"/>
-      <tableStyleElement type="secondRowStripe" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="firstRowStripe" dxfId="12"/>
+      <tableStyleElement type="secondRowStripe" dxfId="11"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -542,18 +934,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="B1:N46" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="B1:N46" headerRowDxfId="10">
   <tableColumns count="13">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Promedio académico" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="# de hermanos"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Semestre actual"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Edad"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="# de asignaturas "/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Presupuesto semanal" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="# de seguidores en ig"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="# de hijos que quiere"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Talla de zapato"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Estatura"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Promedio académico" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="# de hermanos" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Semestre actual" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Edad" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="# de asignaturas " dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Presupuesto semanal" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="# de seguidores en ig" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="# de hijos que quiere" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Talla de zapato" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Estatura" dataDxfId="0"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Género"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Ciudad de nacimiento"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Sector de Bogotá"/>
@@ -765,9 +1157,9 @@
   </sheetPr>
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:K1048576"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -790,46 +1182,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="M1" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="N1" s="26" t="s">
         <v>52</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -837,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
@@ -863,8 +1255,8 @@
       <c r="J2" s="1">
         <v>42</v>
       </c>
-      <c r="K2" s="1">
-        <v>187</v>
+      <c r="K2" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>0</v>
@@ -881,7 +1273,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
@@ -907,8 +1299,8 @@
       <c r="J3" s="4">
         <v>42</v>
       </c>
-      <c r="K3" s="4">
-        <v>1.76</v>
+      <c r="K3" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>0</v>
@@ -924,8 +1316,8 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="14">
-        <v>4.2</v>
+      <c r="B4" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -951,8 +1343,8 @@
       <c r="J4" s="1">
         <v>41</v>
       </c>
-      <c r="K4" s="1">
-        <v>170</v>
+      <c r="K4" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>0</v>
@@ -968,8 +1360,8 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="15">
-        <v>4.55</v>
+      <c r="B5" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="C5" s="4">
         <v>6</v>
@@ -995,11 +1387,11 @@
       <c r="J5" s="4">
         <v>35</v>
       </c>
-      <c r="K5" s="4">
-        <v>153</v>
+      <c r="K5" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>7</v>
@@ -1013,7 +1405,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1039,11 +1431,11 @@
       <c r="J6" s="1">
         <v>36</v>
       </c>
-      <c r="K6" s="1">
-        <v>1.65</v>
+      <c r="K6" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>9</v>
@@ -1057,7 +1449,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -1083,8 +1475,8 @@
       <c r="J7" s="4">
         <v>40</v>
       </c>
-      <c r="K7" s="4">
-        <v>174</v>
+      <c r="K7" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>0</v>
@@ -1101,7 +1493,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -1127,11 +1519,11 @@
       <c r="J8" s="1">
         <v>36</v>
       </c>
-      <c r="K8" s="1">
-        <v>1.6</v>
+      <c r="K8" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>12</v>
@@ -1144,8 +1536,8 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="15">
-        <v>4.41</v>
+      <c r="B9" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -1171,11 +1563,11 @@
       <c r="J9" s="4">
         <v>36</v>
       </c>
-      <c r="K9" s="4">
-        <v>1.53</v>
+      <c r="K9" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>14</v>
@@ -1189,7 +1581,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -1215,8 +1607,8 @@
       <c r="J10" s="1">
         <v>44</v>
       </c>
-      <c r="K10" s="1">
-        <v>185</v>
+      <c r="K10" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>0</v>
@@ -1259,8 +1651,8 @@
       <c r="J11" s="4">
         <v>39</v>
       </c>
-      <c r="K11" s="4">
-        <v>166</v>
+      <c r="K11" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>0</v>
@@ -1277,7 +1669,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -1303,11 +1695,11 @@
       <c r="J12" s="1">
         <v>37</v>
       </c>
-      <c r="K12" s="1">
-        <v>1.58</v>
+      <c r="K12" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>1</v>
@@ -1321,7 +1713,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C13" s="4">
         <v>0</v>
@@ -1347,8 +1739,8 @@
       <c r="J13" s="4">
         <v>39</v>
       </c>
-      <c r="K13" s="4">
-        <v>1.78</v>
+      <c r="K13" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>0</v>
@@ -1364,8 +1756,8 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="14">
-        <v>4.3</v>
+      <c r="B14" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -1391,8 +1783,8 @@
       <c r="J14" s="1">
         <v>39</v>
       </c>
-      <c r="K14" s="1">
-        <v>1.7</v>
+      <c r="K14" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>0</v>
@@ -1408,8 +1800,8 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="15">
-        <v>4.4400000000000004</v>
+      <c r="B15" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
@@ -1435,8 +1827,8 @@
       <c r="J15" s="6">
         <v>39</v>
       </c>
-      <c r="K15" s="4">
-        <v>1.68</v>
+      <c r="K15" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>0</v>
@@ -1453,7 +1845,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -1479,11 +1871,11 @@
       <c r="J16" s="1">
         <v>36</v>
       </c>
-      <c r="K16" s="1">
-        <v>1.61</v>
+      <c r="K16" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>9</v>
@@ -1497,7 +1889,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="C17" s="4">
         <v>3</v>
@@ -1523,8 +1915,8 @@
       <c r="J17" s="4">
         <v>38</v>
       </c>
-      <c r="K17" s="4">
-        <v>1.66</v>
+      <c r="K17" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>0</v>
@@ -1533,7 +1925,7 @@
         <v>9</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1541,7 +1933,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
@@ -1567,17 +1959,17 @@
       <c r="J18" s="1">
         <v>37</v>
       </c>
-      <c r="K18" s="1">
-        <v>1.55</v>
+      <c r="K18" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1585,7 +1977,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
@@ -1611,8 +2003,8 @@
       <c r="J19" s="4">
         <v>39</v>
       </c>
-      <c r="K19" s="4">
-        <v>1.75</v>
+      <c r="K19" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>0</v>
@@ -1655,11 +2047,11 @@
       <c r="J20" s="1">
         <v>36</v>
       </c>
-      <c r="K20" s="1">
-        <v>167</v>
+      <c r="K20" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>9</v>
@@ -1673,7 +2065,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
@@ -1699,8 +2091,8 @@
       <c r="J21" s="4">
         <v>42</v>
       </c>
-      <c r="K21" s="4">
-        <v>1.98</v>
+      <c r="K21" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>0</v>
@@ -1716,8 +2108,8 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="14">
-        <v>4.0999999999999996</v>
+      <c r="B22" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
@@ -1743,17 +2135,17 @@
       <c r="J22" s="1">
         <v>39</v>
       </c>
-      <c r="K22" s="1">
-        <v>1.7</v>
+      <c r="K22" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1761,7 +2153,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="C23" s="4">
         <v>3</v>
@@ -1787,17 +2179,17 @@
       <c r="J23" s="4">
         <v>38</v>
       </c>
-      <c r="K23" s="4">
-        <v>1.6</v>
+      <c r="K23" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1831,8 +2223,8 @@
       <c r="J24" s="1">
         <v>40</v>
       </c>
-      <c r="K24" s="1">
-        <v>1.87</v>
+      <c r="K24" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>0</v>
@@ -1841,15 +2233,15 @@
         <v>9</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="15">
-        <v>39</v>
+      <c r="B25" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="C25" s="4">
         <v>0</v>
@@ -1875,8 +2267,8 @@
       <c r="J25" s="4">
         <v>43</v>
       </c>
-      <c r="K25" s="4">
-        <v>1.8</v>
+      <c r="K25" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>0</v>
@@ -1885,7 +2277,7 @@
         <v>5</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -1893,7 +2285,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -1919,8 +2311,8 @@
       <c r="J26" s="1">
         <v>40</v>
       </c>
-      <c r="K26" s="1">
-        <v>1.8</v>
+      <c r="K26" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>0</v>
@@ -1937,7 +2329,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C27" s="4">
         <v>4</v>
@@ -1963,17 +2355,17 @@
       <c r="J27" s="4">
         <v>39</v>
       </c>
-      <c r="K27" s="4">
-        <v>1.68</v>
+      <c r="K27" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>0</v>
       </c>
       <c r="M27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2007,8 +2399,8 @@
       <c r="J28" s="1">
         <v>38</v>
       </c>
-      <c r="K28" s="1">
-        <v>1.7</v>
+      <c r="K28" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>0</v>
@@ -2017,15 +2409,15 @@
         <v>9</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="15">
-        <v>4.58</v>
+      <c r="B29" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="C29" s="4">
         <v>4</v>
@@ -2051,17 +2443,17 @@
       <c r="J29" s="4">
         <v>40</v>
       </c>
-      <c r="K29" s="4">
-        <v>1.74</v>
+      <c r="K29" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>0</v>
       </c>
       <c r="M29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2095,8 +2487,8 @@
       <c r="J30" s="1">
         <v>44</v>
       </c>
-      <c r="K30" s="1">
-        <v>1.75</v>
+      <c r="K30" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>0</v>
@@ -2105,7 +2497,7 @@
         <v>9</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2139,14 +2531,14 @@
       <c r="J31" s="4">
         <v>38</v>
       </c>
-      <c r="K31" s="4">
-        <v>1.78</v>
+      <c r="K31" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>0</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N31" s="5" t="s">
         <v>2</v>
@@ -2157,7 +2549,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -2183,8 +2575,8 @@
       <c r="J32" s="1">
         <v>43</v>
       </c>
-      <c r="K32" s="1">
-        <v>1.75</v>
+      <c r="K32" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>0</v>
@@ -2193,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -2201,7 +2593,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C33" s="4">
         <v>2</v>
@@ -2227,17 +2619,17 @@
       <c r="J33" s="4">
         <v>36</v>
       </c>
-      <c r="K33" s="4">
-        <v>1.65</v>
+      <c r="K33" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>9</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -2245,7 +2637,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C34" s="1">
         <v>2</v>
@@ -2271,8 +2663,8 @@
       <c r="J34" s="1">
         <v>40</v>
       </c>
-      <c r="K34" s="1">
-        <v>1.75</v>
+      <c r="K34" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>0</v>
@@ -2281,7 +2673,7 @@
         <v>5</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -2315,8 +2707,8 @@
       <c r="J35" s="4">
         <v>41</v>
       </c>
-      <c r="K35" s="4">
-        <v>1.71</v>
+      <c r="K35" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>0</v>
@@ -2332,8 +2724,8 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="14">
-        <v>40</v>
+      <c r="B36" s="27" t="s">
+        <v>54</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
@@ -2359,11 +2751,11 @@
       <c r="J36" s="1">
         <v>34</v>
       </c>
-      <c r="K36" s="1">
-        <v>1.58</v>
+      <c r="K36" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>9</v>
@@ -2377,7 +2769,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -2403,8 +2795,8 @@
       <c r="J37" s="4">
         <v>38</v>
       </c>
-      <c r="K37" s="4">
-        <v>1.8</v>
+      <c r="K37" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>0</v>
@@ -2421,7 +2813,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -2447,14 +2839,14 @@
       <c r="J38" s="1">
         <v>38</v>
       </c>
-      <c r="K38" s="1">
-        <v>1.68</v>
+      <c r="K38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N38" s="3" t="s">
         <v>13</v>
@@ -2465,7 +2857,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C39" s="4">
         <v>1</v>
@@ -2491,8 +2883,8 @@
       <c r="J39">
         <v>39</v>
       </c>
-      <c r="K39">
-        <v>1.67</v>
+      <c r="K39" t="s">
+        <v>89</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>0</v>
@@ -2501,7 +2893,7 @@
         <v>5</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -2509,7 +2901,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
@@ -2535,17 +2927,17 @@
       <c r="J40" s="1">
         <v>35</v>
       </c>
-      <c r="K40" s="1">
-        <v>1.54</v>
+      <c r="K40" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>9</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -2553,7 +2945,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="C41" s="4">
         <v>2</v>
@@ -2579,11 +2971,11 @@
       <c r="J41" s="4">
         <v>37</v>
       </c>
-      <c r="K41" s="4">
-        <v>1.53</v>
+      <c r="K41" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>5</v>
@@ -2623,8 +3015,8 @@
       <c r="J42" s="1">
         <v>39</v>
       </c>
-      <c r="K42" s="1">
-        <v>174</v>
+      <c r="K42" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>0</v>
@@ -2633,7 +3025,7 @@
         <v>9</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -2667,8 +3059,8 @@
       <c r="J43" s="4">
         <v>41</v>
       </c>
-      <c r="K43" s="4">
-        <v>1.71</v>
+      <c r="K43" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>0</v>
@@ -2684,8 +3076,8 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="14">
-        <v>40</v>
+      <c r="B44" s="27" t="s">
+        <v>54</v>
       </c>
       <c r="C44" s="1">
         <v>3</v>
@@ -2711,8 +3103,8 @@
       <c r="J44" s="1">
         <v>40</v>
       </c>
-      <c r="K44" s="1">
-        <v>1.76</v>
+      <c r="K44" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>0</v>
@@ -2728,8 +3120,8 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="15">
-        <v>4.5999999999999996</v>
+      <c r="B45" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="C45" s="4">
         <v>1</v>
@@ -2755,17 +3147,17 @@
       <c r="J45" s="4">
         <v>32</v>
       </c>
-      <c r="K45" s="4">
-        <v>1.6</v>
+      <c r="K45" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -2773,7 +3165,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C46" s="7">
         <v>1</v>
@@ -2799,8 +3191,8 @@
       <c r="J46" s="7">
         <v>43</v>
       </c>
-      <c r="K46" s="7">
-        <v>1.75</v>
+      <c r="K46" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>0</v>
@@ -2809,7 +3201,7 @@
         <v>9</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2824,8 +3216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC598AB-BDDD-4E8E-A38C-0291A3EA892E}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2844,39 +3236,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
@@ -2902,13 +3294,13 @@
       <c r="I2" s="1">
         <v>42</v>
       </c>
-      <c r="J2" s="1">
-        <v>187</v>
+      <c r="J2" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -2934,13 +3326,13 @@
       <c r="I3" s="4">
         <v>42</v>
       </c>
-      <c r="J3" s="4">
-        <v>1.76</v>
+      <c r="J3" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
-        <v>4.2</v>
+      <c r="A4" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -2966,13 +3358,13 @@
       <c r="I4" s="1">
         <v>41</v>
       </c>
-      <c r="J4" s="1">
-        <v>170</v>
+      <c r="J4" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>4.55</v>
+      <c r="A5" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="B5" s="4">
         <v>6</v>
@@ -2998,13 +3390,13 @@
       <c r="I5" s="4">
         <v>35</v>
       </c>
-      <c r="J5" s="4">
-        <v>153</v>
+      <c r="J5" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -3030,13 +3422,13 @@
       <c r="I6" s="1">
         <v>36</v>
       </c>
-      <c r="J6" s="1">
-        <v>1.65</v>
+      <c r="J6" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -3062,13 +3454,13 @@
       <c r="I7" s="4">
         <v>40</v>
       </c>
-      <c r="J7" s="4">
-        <v>174</v>
+      <c r="J7" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -3094,13 +3486,13 @@
       <c r="I8" s="1">
         <v>36</v>
       </c>
-      <c r="J8" s="1">
-        <v>1.6</v>
+      <c r="J8" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>4.41</v>
+      <c r="A9" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -3126,13 +3518,13 @@
       <c r="I9" s="4">
         <v>36</v>
       </c>
-      <c r="J9" s="4">
-        <v>1.53</v>
+      <c r="J9" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -3158,8 +3550,8 @@
       <c r="I10" s="1">
         <v>44</v>
       </c>
-      <c r="J10" s="1">
-        <v>185</v>
+      <c r="J10" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3190,13 +3582,13 @@
       <c r="I11" s="4">
         <v>39</v>
       </c>
-      <c r="J11" s="4">
-        <v>166</v>
+      <c r="J11" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
@@ -3222,13 +3614,13 @@
       <c r="I12" s="1">
         <v>37</v>
       </c>
-      <c r="J12" s="1">
-        <v>1.58</v>
+      <c r="J12" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B13" s="4">
         <v>0</v>
@@ -3254,13 +3646,13 @@
       <c r="I13" s="4">
         <v>39</v>
       </c>
-      <c r="J13" s="4">
-        <v>1.78</v>
+      <c r="J13" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
-        <v>4.3</v>
+      <c r="A14" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -3286,13 +3678,13 @@
       <c r="I14" s="1">
         <v>39</v>
       </c>
-      <c r="J14" s="1">
-        <v>1.7</v>
+      <c r="J14" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
-        <v>4.4400000000000004</v>
+      <c r="A15" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="B15" s="4">
         <v>0</v>
@@ -3318,13 +3710,13 @@
       <c r="I15" s="6">
         <v>39</v>
       </c>
-      <c r="J15" s="4">
-        <v>1.68</v>
+      <c r="J15" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -3350,13 +3742,13 @@
       <c r="I16" s="1">
         <v>36</v>
       </c>
-      <c r="J16" s="1">
-        <v>1.61</v>
+      <c r="J16" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="B17" s="4">
         <v>3</v>
@@ -3382,13 +3774,13 @@
       <c r="I17" s="4">
         <v>38</v>
       </c>
-      <c r="J17" s="4">
-        <v>1.66</v>
+      <c r="J17" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
@@ -3414,13 +3806,13 @@
       <c r="I18" s="1">
         <v>37</v>
       </c>
-      <c r="J18" s="1">
-        <v>1.55</v>
+      <c r="J18" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
@@ -3446,8 +3838,8 @@
       <c r="I19" s="4">
         <v>39</v>
       </c>
-      <c r="J19" s="4">
-        <v>1.75</v>
+      <c r="J19" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -3478,13 +3870,13 @@
       <c r="I20" s="1">
         <v>36</v>
       </c>
-      <c r="J20" s="1">
-        <v>167</v>
+      <c r="J20" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B21" s="4">
         <v>0</v>
@@ -3510,13 +3902,13 @@
       <c r="I21" s="4">
         <v>42</v>
       </c>
-      <c r="J21" s="4">
-        <v>1.98</v>
+      <c r="J21" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
-        <v>4.0999999999999996</v>
+      <c r="A22" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="B22" s="1">
         <v>2</v>
@@ -3542,13 +3934,13 @@
       <c r="I22" s="1">
         <v>39</v>
       </c>
-      <c r="J22" s="1">
-        <v>1.7</v>
+      <c r="J22" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B23" s="4">
         <v>3</v>
@@ -3574,8 +3966,8 @@
       <c r="I23" s="4">
         <v>38</v>
       </c>
-      <c r="J23" s="4">
-        <v>1.6</v>
+      <c r="J23" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -3606,13 +3998,13 @@
       <c r="I24" s="1">
         <v>40</v>
       </c>
-      <c r="J24" s="1">
-        <v>1.87</v>
+      <c r="J24" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
-        <v>39</v>
+      <c r="A25" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="B25" s="4">
         <v>0</v>
@@ -3638,13 +4030,13 @@
       <c r="I25" s="4">
         <v>43</v>
       </c>
-      <c r="J25" s="4">
-        <v>1.8</v>
+      <c r="J25" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -3670,13 +4062,13 @@
       <c r="I26" s="1">
         <v>40</v>
       </c>
-      <c r="J26" s="1">
-        <v>1.8</v>
+      <c r="J26" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B27" s="4">
         <v>4</v>
@@ -3702,8 +4094,8 @@
       <c r="I27" s="4">
         <v>39</v>
       </c>
-      <c r="J27" s="4">
-        <v>1.68</v>
+      <c r="J27" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -3734,13 +4126,13 @@
       <c r="I28" s="1">
         <v>38</v>
       </c>
-      <c r="J28" s="1">
-        <v>1.7</v>
+      <c r="J28" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
-        <v>4.58</v>
+      <c r="A29" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="B29" s="4">
         <v>4</v>
@@ -3766,8 +4158,8 @@
       <c r="I29" s="4">
         <v>40</v>
       </c>
-      <c r="J29" s="4">
-        <v>1.74</v>
+      <c r="J29" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -3798,8 +4190,8 @@
       <c r="I30" s="1">
         <v>44</v>
       </c>
-      <c r="J30" s="1">
-        <v>1.75</v>
+      <c r="J30" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -3830,13 +4222,13 @@
       <c r="I31" s="4">
         <v>38</v>
       </c>
-      <c r="J31" s="4">
-        <v>1.78</v>
+      <c r="J31" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
@@ -3862,13 +4254,13 @@
       <c r="I32" s="1">
         <v>43</v>
       </c>
-      <c r="J32" s="1">
-        <v>1.75</v>
+      <c r="J32" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B33" s="4">
         <v>2</v>
@@ -3894,13 +4286,13 @@
       <c r="I33" s="4">
         <v>36</v>
       </c>
-      <c r="J33" s="4">
-        <v>1.65</v>
+      <c r="J33" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B34" s="1">
         <v>2</v>
@@ -3926,8 +4318,8 @@
       <c r="I34" s="1">
         <v>40</v>
       </c>
-      <c r="J34" s="1">
-        <v>1.75</v>
+      <c r="J34" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -3958,13 +4350,13 @@
       <c r="I35" s="4">
         <v>41</v>
       </c>
-      <c r="J35" s="4">
-        <v>1.71</v>
+      <c r="J35" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="14">
-        <v>40</v>
+      <c r="A36" s="27" t="s">
+        <v>54</v>
       </c>
       <c r="B36" s="1">
         <v>0</v>
@@ -3990,13 +4382,13 @@
       <c r="I36" s="1">
         <v>34</v>
       </c>
-      <c r="J36" s="1">
-        <v>1.58</v>
+      <c r="J36" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="B37" s="4">
         <v>1</v>
@@ -4022,13 +4414,13 @@
       <c r="I37" s="4">
         <v>38</v>
       </c>
-      <c r="J37" s="4">
-        <v>1.8</v>
+      <c r="J37" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
@@ -4054,13 +4446,13 @@
       <c r="I38" s="1">
         <v>38</v>
       </c>
-      <c r="J38" s="1">
-        <v>1.68</v>
+      <c r="J38" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="B39" s="4">
         <v>1</v>
@@ -4086,13 +4478,13 @@
       <c r="I39">
         <v>39</v>
       </c>
-      <c r="J39">
-        <v>1.67</v>
+      <c r="J39" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B40" s="1">
         <v>0</v>
@@ -4118,13 +4510,13 @@
       <c r="I40" s="1">
         <v>35</v>
       </c>
-      <c r="J40" s="1">
-        <v>1.54</v>
+      <c r="J40" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B41" s="4">
         <v>2</v>
@@ -4150,8 +4542,8 @@
       <c r="I41" s="4">
         <v>37</v>
       </c>
-      <c r="J41" s="4">
-        <v>1.53</v>
+      <c r="J41" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -4182,8 +4574,8 @@
       <c r="I42" s="1">
         <v>39</v>
       </c>
-      <c r="J42" s="1">
-        <v>174</v>
+      <c r="J42" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -4214,13 +4606,13 @@
       <c r="I43" s="4">
         <v>41</v>
       </c>
-      <c r="J43" s="4">
-        <v>1.71</v>
+      <c r="J43" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="14">
-        <v>40</v>
+      <c r="A44" s="27" t="s">
+        <v>54</v>
       </c>
       <c r="B44" s="1">
         <v>3</v>
@@ -4246,13 +4638,13 @@
       <c r="I44" s="1">
         <v>40</v>
       </c>
-      <c r="J44" s="1">
-        <v>1.76</v>
+      <c r="J44" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="15">
-        <v>4.5999999999999996</v>
+      <c r="A45" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="B45" s="4">
         <v>1</v>
@@ -4278,13 +4670,13 @@
       <c r="I45" s="4">
         <v>32</v>
       </c>
-      <c r="J45" s="4">
-        <v>1.6</v>
+      <c r="J45" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B46" s="7">
         <v>1</v>
@@ -4310,8 +4702,8 @@
       <c r="I46" s="7">
         <v>43</v>
       </c>
-      <c r="J46" s="7">
-        <v>1.75</v>
+      <c r="J46" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
